--- a/public/modeles/Annexe_MCCC_BUT.xlsx
+++ b/public/modeles/Annexe_MCCC_BUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidannebicque/Sites/oreof/public/modeles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D19E9-C509-2541-BA5F-F9E9081B2481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759B4100-1C89-9246-8BC8-9D1636F4FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,15 +1409,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1483,19 +1475,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1575,6 +1555,192 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,200 +1792,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2130,8 +2126,8 @@
   </sheetPr>
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN29" sqref="AN29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2149,23 +2145,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="89"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -2190,128 +2186,128 @@
       <c r="AO1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="89"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="88"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="88"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="88"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:41" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="89"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="88"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
@@ -2466,9 +2462,9 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:44" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2476,80 +2472,80 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="L17" s="116" t="s">
+      <c r="L17" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="118"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="115"/>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="54" t="s">
+      <c r="AM17" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AN17" s="55"/>
+      <c r="AN17" s="50"/>
     </row>
     <row r="18" spans="1:44" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="116" t="s">
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="118"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="115"/>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="35" t="s">
+      <c r="AM18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AN18" s="36" t="s">
+      <c r="AN18" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2558,284 +2554,284 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="L19" s="103" t="s">
+      <c r="L19" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="123" t="s">
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="103" t="s">
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="103" t="s">
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="105"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="93"/>
       <c r="AL19" s="8"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="101"/>
+      <c r="AM19" s="121"/>
+      <c r="AN19" s="123"/>
     </row>
     <row r="20" spans="1:44" s="15" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="123" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="134" t="s">
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106" t="s">
+      <c r="M20" s="94"/>
+      <c r="N20" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106" t="s">
+      <c r="O20" s="94"/>
+      <c r="P20" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106" t="s">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="131"/>
-      <c r="T20" s="106" t="s">
+      <c r="S20" s="95"/>
+      <c r="T20" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106" t="s">
+      <c r="U20" s="94"/>
+      <c r="V20" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="W20" s="106"/>
-      <c r="X20" s="120" t="s">
+      <c r="W20" s="94"/>
+      <c r="X20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="96" t="s">
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="98" t="s">
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98" t="s">
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="120" t="s">
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98" t="s">
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98" t="s">
+      <c r="AI20" s="116"/>
+      <c r="AJ20" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="AK20" s="119"/>
+      <c r="AK20" s="117"/>
       <c r="AL20" s="8"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="101"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="123"/>
     </row>
     <row r="21" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="132" t="s">
+      <c r="D21" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="126" t="s">
+      <c r="E21" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="128" t="s">
+      <c r="F21" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="128" t="s">
+      <c r="G21" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="126" t="s">
+      <c r="I21" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="128" t="s">
+      <c r="J21" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="94" t="s">
+      <c r="K21" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="90" t="s">
+      <c r="M21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="90" t="s">
+      <c r="N21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="90" t="s">
+      <c r="O21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="90" t="s">
+      <c r="P21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="90" t="s">
+      <c r="Q21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="90" t="s">
+      <c r="R21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="92" t="s">
+      <c r="S21" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="107" t="s">
+      <c r="T21" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="90" t="s">
+      <c r="U21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="90" t="s">
+      <c r="V21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="W21" s="92" t="s">
+      <c r="W21" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="X21" s="107" t="s">
+      <c r="X21" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="90" t="s">
+      <c r="Y21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="Z21" s="90" t="s">
+      <c r="Z21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AA21" s="90" t="s">
+      <c r="AA21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AB21" s="90" t="s">
+      <c r="AB21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AC21" s="90" t="s">
+      <c r="AC21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AD21" s="90" t="s">
+      <c r="AD21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AE21" s="92" t="s">
+      <c r="AE21" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="AF21" s="107" t="s">
+      <c r="AF21" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="AG21" s="90" t="s">
+      <c r="AG21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AH21" s="90" t="s">
+      <c r="AH21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AI21" s="90" t="s">
+      <c r="AI21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AJ21" s="90" t="s">
+      <c r="AJ21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AK21" s="121" t="s">
+      <c r="AK21" s="119" t="s">
         <v>39</v>
       </c>
       <c r="AL21" s="16"/>
-      <c r="AM21" s="99"/>
-      <c r="AN21" s="101"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="123"/>
     </row>
     <row r="22" spans="1:44" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="122"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="120"/>
       <c r="AL22" s="16"/>
-      <c r="AM22" s="100"/>
-      <c r="AN22" s="102"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="124"/>
     </row>
     <row r="23" spans="1:44" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="17"/>
@@ -2846,199 +2842,199 @@
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="51"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="46"/>
     </row>
     <row r="24" spans="1:44" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="27"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="150"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="150"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="150"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="25"/>
     </row>
     <row r="25" spans="1:44" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="145" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="65">
+      <c r="D26" s="28"/>
+      <c r="E26" s="60">
         <f>SUM(E23:E24)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="61">
         <f t="shared" ref="F26:H26" si="0">SUM(F23:F24)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AF26" s="78" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AF26" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="70" t="s">
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="59"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="54"/>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="147">
+      <c r="A27" s="109"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="83">
         <f>E26+F26+G26</f>
         <v>0</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
@@ -3053,22 +3049,22 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="72" t="s">
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="139"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="64">
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="59">
         <f>SUM(AM23:AM24)</f>
         <v>0</v>
       </c>
-      <c r="AN27" s="63">
+      <c r="AN27" s="58">
         <f>SUM(AN23:AN24)</f>
         <v>0</v>
       </c>
@@ -3077,21 +3073,21 @@
       <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
@@ -3106,36 +3102,36 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="74" t="s">
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="58"/>
+      <c r="AL28" s="132"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="53"/>
     </row>
     <row r="29" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
@@ -3150,34 +3146,34 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="57"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="142"/>
+      <c r="AI29" s="142"/>
+      <c r="AJ29" s="143"/>
+      <c r="AK29" s="133"/>
+      <c r="AL29" s="134"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="52"/>
     </row>
     <row r="30" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
@@ -3198,9 +3194,9 @@
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
     </row>
@@ -3210,133 +3206,150 @@
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
     </row>
     <row r="33" spans="1:41" s="4" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
     </row>
     <row r="34" spans="1:41" s="4" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="140"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="89">
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL29"/>
+    <mergeCell ref="AF26:AJ29"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AM19:AM22"/>
+    <mergeCell ref="AN19:AN22"/>
+    <mergeCell ref="X19:AE19"/>
+    <mergeCell ref="AF19:AK19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AF21:AF22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L17:AK17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AI21:AI22"/>
+    <mergeCell ref="AJ21:AJ22"/>
+    <mergeCell ref="AK21:AK22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="L18:W18"/>
+    <mergeCell ref="X18:AK18"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="T19:W19"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="A20:C20"/>
@@ -3353,51 +3366,34 @@
     <mergeCell ref="K4:S4"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:S5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L17:AK17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AI21:AI22"/>
-    <mergeCell ref="AJ21:AJ22"/>
-    <mergeCell ref="AK21:AK22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="L18:W18"/>
-    <mergeCell ref="X18:AK18"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="AM19:AM22"/>
-    <mergeCell ref="AN19:AN22"/>
-    <mergeCell ref="X19:AE19"/>
-    <mergeCell ref="AF19:AK19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AF21:AF22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL29"/>
-    <mergeCell ref="AF26:AJ29"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="R21:R22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -3548,18 +3544,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3581,6 +3577,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD76440-93ED-42D9-8BEF-8453B0F06F00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5D3E457-9575-4645-87B7-BB743503EE93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3594,12 +3598,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD76440-93ED-42D9-8BEF-8453B0F06F00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>